--- a/excel_with_subclasses/without_zeros/bridge_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/bridge_with_count_without_zeros.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -432,9 +432,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>5739</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,9 +449,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2009</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,9 +466,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1489</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,9 +483,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>797</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -512,9 +500,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>736</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -532,9 +517,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>726</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -552,9 +534,6 @@
           <t>Q18870689_акведук</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>715</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -572,9 +551,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>687</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -592,9 +568,6 @@
           <t>Q3397572_металлический мост,Q17645478_мост по использованному материалу</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>454</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -612,9 +585,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>381</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -632,9 +602,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>374</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -652,9 +619,6 @@
           <t>Q5159064_бетонный мост</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>248</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -672,9 +636,6 @@
           <t>Q12280_мост,Q181348_виадук</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -692,9 +653,6 @@
           <t>Q181348_виадук,Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>232</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -712,9 +670,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>193</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -732,9 +687,6 @@
           <t>Q17645478_мост по использованному материалу</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>166</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -752,9 +704,6 @@
           <t>Q1055465_балочный мост</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>146</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -772,9 +721,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>141</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -792,9 +738,6 @@
           <t>Q537127_автомобильный мост</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>117</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -812,9 +755,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>117</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -832,9 +772,6 @@
           <t>Q474_акведук,Q12280_мост</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -852,9 +789,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>106</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -872,9 +806,6 @@
           <t>Q5159064_бетонный мост</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -892,9 +823,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -912,9 +840,6 @@
           <t>Q537127_автомобильный мост,Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -932,9 +857,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -952,9 +874,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -972,9 +891,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -992,9 +908,6 @@
           <t>Q3397572_металлический мост</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1012,9 +925,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1032,9 +942,6 @@
           <t>Q12280_мост,Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1052,9 +959,6 @@
           <t>Q158626_балочный мост,Q1055465_балочный мост</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1072,9 +976,6 @@
           <t>Q181348_виадук</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1092,9 +993,6 @@
           <t>Q474_акведук</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1112,9 +1010,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1132,9 +1027,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1152,9 +1044,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1172,9 +1061,6 @@
           <t>Q5159064_бетонный мост</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1192,9 +1078,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1212,9 +1095,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1232,9 +1112,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1252,9 +1129,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1272,9 +1146,6 @@
           <t>Q158626_балочный мост,Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1292,9 +1163,6 @@
           <t>Q3397526_каменный мост</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1312,9 +1180,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1332,9 +1197,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,9 +1214,6 @@
           <t>Q7159158_Pedestrian separation structure</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1372,9 +1231,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1392,9 +1248,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1412,9 +1265,6 @@
           <t>Q474_акведук</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1432,9 +1282,6 @@
           <t>Q17645478_мост по использованному материалу</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1452,9 +1299,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1472,9 +1316,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1492,9 +1333,6 @@
           <t>Q158218_мост со сквозными фермами,Q14276458_арочный мост с ездой поверху</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1512,9 +1350,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1532,9 +1367,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1552,9 +1384,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1572,9 +1401,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1592,9 +1418,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1612,9 +1435,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1632,9 +1452,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1652,9 +1469,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1672,9 +1486,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1692,9 +1503,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1712,9 +1520,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1732,9 +1537,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1752,9 +1554,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1772,9 +1571,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1792,9 +1588,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1812,9 +1605,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1832,9 +1622,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1852,9 +1639,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1872,9 +1656,6 @@
           <t>Q1055465_балочный мост</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1892,9 +1673,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1912,9 +1690,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1932,9 +1707,6 @@
           <t>Q1068842_пешеходный мост,Q3397526_каменный мост</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1952,9 +1724,6 @@
           <t>Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1972,9 +1741,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1992,9 +1758,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2012,9 +1775,6 @@
           <t>Q64563255_bridge crossing a specific body of water</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2032,9 +1792,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2052,9 +1809,6 @@
           <t>Q158555_вантовый мост</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2072,9 +1826,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2092,9 +1843,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2112,9 +1860,6 @@
           <t>Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2132,9 +1877,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2152,9 +1894,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2172,9 +1911,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2192,9 +1928,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2212,9 +1945,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2232,9 +1962,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2252,9 +1979,6 @@
           <t>Q474_акведук</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2272,9 +1996,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2292,9 +2013,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2312,9 +2030,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2332,9 +2047,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2352,9 +2064,6 @@
           <t>Q1210334_железнодорожный мост</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2372,9 +2081,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2392,9 +2098,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2412,9 +2115,6 @@
           <t>Q158555_вантовый мост</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2432,9 +2132,6 @@
           <t>Q158218_мост со сквозными фермами</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2452,9 +2149,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2472,9 +2166,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2492,9 +2183,6 @@
           <t>Q12280_мост</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2511,9 +2199,6 @@
         <is>
           <t>Q12280_мост</t>
         </is>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2553,7 +2238,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -2573,9 +2258,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>253</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2593,9 +2275,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2613,9 +2292,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2633,9 +2309,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2653,9 +2326,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2673,9 +2343,6 @@
           <t>Q14276458_арочный мост с ездой поверху</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2693,9 +2360,6 @@
           <t>Q158438_арочный мост</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2712,9 +2376,6 @@
         <is>
           <t>Q14276458_арочный мост с ездой поверху,Q88960409_open-spandrel arch bridge</t>
         </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2415,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -2774,9 +2435,6 @@
           <t>Q12570_висячий мост</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2793,9 +2451,6 @@
         <is>
           <t>Q12570_висячий мост</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2490,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -2855,9 +2510,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>218</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2875,9 +2528,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>149</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2895,9 +2546,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>96</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2915,9 +2564,7 @@
           <t>Q23383_подъёмный мост</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>30</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2935,9 +2582,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2955,9 +2600,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2975,9 +2618,7 @@
           <t>Q911663_раскрывающийся мост,Q1898246_вертикально-подъёмный мост,Q3397564_оборонительный подъёмный мост</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2995,9 +2636,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3015,9 +2654,7 @@
           <t>Q787417_разводной мост,Q911663_раскрывающийся мост</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3035,9 +2672,7 @@
           <t>Q787417_разводной мост,Q911663_раскрывающийся мост</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3055,9 +2690,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3075,9 +2708,7 @@
           <t>Q787417_разводной мост</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
